--- a/ResultadoEleicoesDistritos/VISEU_CASTRO DAIRE.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_CASTRO DAIRE.xlsx
@@ -597,64 +597,64 @@
         <v>4101</v>
       </c>
       <c r="H2" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I2" t="n">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="J2" t="n">
-        <v>1731</v>
+        <v>1702</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="M2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>23</v>
+      </c>
+      <c r="S2" t="n">
+        <v>194</v>
+      </c>
+      <c r="T2" t="n">
+        <v>273</v>
+      </c>
+      <c r="U2" t="n">
+        <v>32</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2639</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10</v>
-      </c>
-      <c r="S2" t="n">
-        <v>195</v>
-      </c>
-      <c r="T2" t="n">
-        <v>308</v>
-      </c>
-      <c r="U2" t="n">
-        <v>27</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2606</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>2540</v>
+        <v>2618</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
